--- a/Metropolitan Roads/28921/ITP-080-CIV-PSDS-Stormwater Drainage Supply & Installation Rev 0.xlsx
+++ b/Metropolitan Roads/28921/ITP-080-CIV-PSDS-Stormwater Drainage Supply & Installation Rev 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirav\Desktop\Projects\04-Progress Street, South Dandenong\01-ITPs\ITP-080-CIV-PSDS-Stormwater Drainage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\28921\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC9A473-AE8E-4328-A60E-B7DE9AF2DEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8955150F-053C-43BA-916F-9E14918446B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="765" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITP-008" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ITP-008'!$11:$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1716,6 +1715,66 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1783,66 +1842,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2176,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2197,25 +2196,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="67" t="str">
         <f>"ITP-"&amp;C4&amp;"-"&amp;C3</f>
         <v>ITP-080-CIV-PSD-Stormwater Drainage Supply &amp; Installation</v>
@@ -2230,10 +2229,10 @@
       <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="68" t="s">
         <v>194</v>
       </c>
@@ -2247,10 +2246,10 @@
       <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="113"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="68" t="s">
         <v>196</v>
       </c>
@@ -2264,10 +2263,10 @@
       <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="113"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="77">
         <v>0</v>
       </c>
@@ -2281,10 +2280,10 @@
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="113"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="76">
         <v>45265</v>
       </c>
@@ -2298,10 +2297,10 @@
       <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="113"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="68" t="s">
         <v>195</v>
       </c>
@@ -2315,10 +2314,10 @@
       <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="113"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="68" t="s">
         <v>195</v>
       </c>
@@ -2332,10 +2331,10 @@
       <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:11" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="115"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="69" t="s">
         <v>197</v>
       </c>
@@ -2353,27 +2352,27 @@
       <c r="A11" s="32"/>
       <c r="B11" s="33"/>
       <c r="C11" s="71"/>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="35"/>
       <c r="C12" s="72"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="23" t="s">
         <v>10</v>
       </c>
@@ -2386,12 +2385,12 @@
       <c r="A13" s="34"/>
       <c r="B13" s="35"/>
       <c r="C13" s="72"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="24" t="s">
         <v>11</v>
       </c>
@@ -2404,79 +2403,79 @@
       <c r="A14" s="34"/>
       <c r="B14" s="35"/>
       <c r="C14" s="72"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="25"/>
       <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="106"/>
       <c r="J15" s="27"/>
       <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
     </row>
     <row r="17" spans="1:13" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105" t="s">
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="105" t="s">
+      <c r="I17" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="95" t="s">
+      <c r="J17" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="103" t="s">
+      <c r="K17" s="92" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="106"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="15" t="s">
         <v>22</v>
       </c>
@@ -2486,27 +2485,27 @@
       <c r="G18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="104"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="93"/>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>1</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
       <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
@@ -2688,18 +2687,18 @@
       <c r="A25" s="17">
         <v>2</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="94"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="114"/>
       <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13" ht="157.5" x14ac:dyDescent="0.25">
@@ -2930,18 +2929,18 @@
       <c r="A33" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="94"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="114"/>
       <c r="M33" s="51"/>
     </row>
     <row r="34" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
@@ -2980,18 +2979,18 @@
       <c r="A35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="94"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="114"/>
       <c r="M35" s="51"/>
     </row>
     <row r="36" spans="1:13" s="40" customFormat="1" ht="123.75" x14ac:dyDescent="0.25">
@@ -3029,18 +3028,18 @@
       <c r="A37" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="94"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="114"/>
     </row>
     <row r="38" spans="1:13" s="61" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
@@ -3666,18 +3665,18 @@
       <c r="A58" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="93" t="s">
+      <c r="B58" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="94"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="114"/>
     </row>
     <row r="59" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="64">
@@ -3805,46 +3804,46 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="80"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="100"/>
     </row>
     <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="82"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="101"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="102"/>
     </row>
     <row r="65" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="81"/>
-      <c r="J65" s="81"/>
-      <c r="K65" s="82"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="102"/>
     </row>
     <row r="66" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
@@ -3863,24 +3862,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="B63:K63"/>
     <mergeCell ref="B64:K65"/>
@@ -3897,6 +3878,24 @@
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4346,62 +4345,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j3373299c44a42499a29e1915264a3b5>
-    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xsi:nil="true"/>
-    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </d0c3539471b44cfa8fe7a085a2c8a5d5>
-    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l1532197b8344cb19adf5365ae4ff0ff>
-    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-372386</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
-      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-372386</Url>
-      <Description>MRPA-1160097302-372386</Description>
-    </_dlc_DocIdUrl>
-    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </me5b5cb8f12249249ca913346c48a983>
-    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </cc33861001d04fbf92e96c5a2d70a7b6>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
-    <TeambinderTransmittal xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <TeambinderNumber xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">TM No.</TeambinderNumber>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -4451,6 +4394,62 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j3373299c44a42499a29e1915264a3b5>
+    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xsi:nil="true"/>
+    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </d0c3539471b44cfa8fe7a085a2c8a5d5>
+    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l1532197b8344cb19adf5365ae4ff0ff>
+    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-372386</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
+      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-372386</Url>
+      <Description>MRPA-1160097302-372386</Description>
+    </_dlc_DocIdUrl>
+    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </me5b5cb8f12249249ca913346c48a983>
+    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </cc33861001d04fbf92e96c5a2d70a7b6>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
+    <TeambinderTransmittal xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <TeambinderNumber xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">TM No.</TeambinderNumber>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7C8BAB7-1BAB-493B-A9E7-B4263316EBC2}">
   <ds:schemaRefs>
@@ -4473,14 +4472,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
-    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
-    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4494,9 +4488,14 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
+    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
+    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>